--- a/ProjectJava/data/ListeStudentInscription.xlsx
+++ b/ProjectJava/data/ListeStudentInscription.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5BCD3CCA-9839-43F7-A188-0752AA04D0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF62D0FB-0BFA-45E5-A535-8E6DF916CCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,21 +371,21 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/ProjectJava/data/ListeStudentInscription.xlsx
+++ b/ProjectJava/data/ListeStudentInscription.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF62D0FB-0BFA-45E5-A535-8E6DF916CCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3DEFC21D-9E2A-49A7-B895-B39565A1D166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -51,12 +51,52 @@
   </si>
   <si>
     <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Filière</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LAHBIL</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>9-5-2000</t>
+  </si>
+  <si>
+    <t>H143056299</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>mohammedine19@gmail.com</t>
+  </si>
+  <si>
+    <t>0650702607</t>
+  </si>
+  <si>
+    <t>CPGE filière : MP</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Paiement validé</t>
+  </si>
+  <si>
+    <t>WellDone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -376,19 +416,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,11 +458,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectJava/data/ListeStudentInscription.xlsx
+++ b/ProjectJava/data/ListeStudentInscription.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3DEFC21D-9E2A-49A7-B895-B39565A1D166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C78577E-C6B5-4B6B-8C70-6B4ECAE10615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -56,9 +56,6 @@
     <t>Filière</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>LAHBIL</t>
   </si>
   <si>
@@ -90,6 +87,33 @@
   </si>
   <si>
     <t>WellDone</t>
+  </si>
+  <si>
+    <t>RHIF</t>
+  </si>
+  <si>
+    <t>Afaf</t>
+  </si>
+  <si>
+    <t>8-9-1999</t>
+  </si>
+  <si>
+    <t>A4563776</t>
+  </si>
+  <si>
+    <t>afafrhif1999@gmail.com</t>
+  </si>
+  <si>
+    <t>068674534</t>
+  </si>
+  <si>
+    <t>CPGE filière : PSI</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>afen</t>
   </si>
 </sst>
 </file>
@@ -408,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -419,7 +443,7 @@
     <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.28515625" collapsed="true"/>
@@ -466,37 +490,39 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectJava/data/ListeStudentInscription.xlsx
+++ b/ProjectJava/data/ListeStudentInscription.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C78577E-C6B5-4B6B-8C70-6B4ECAE10615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0916E539-7F17-4C97-9387-2D8A0492E8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -86,34 +86,13 @@
     <t>Paiement validé</t>
   </si>
   <si>
-    <t>WellDone</t>
-  </si>
-  <si>
-    <t>RHIF</t>
-  </si>
-  <si>
-    <t>Afaf</t>
-  </si>
-  <si>
-    <t>8-9-1999</t>
-  </si>
-  <si>
-    <t>A4563776</t>
-  </si>
-  <si>
-    <t>afafrhif1999@gmail.com</t>
-  </si>
-  <si>
-    <t>068674534</t>
-  </si>
-  <si>
-    <t>CPGE filière : PSI</t>
-  </si>
-  <si>
-    <t>Femme</t>
-  </si>
-  <si>
-    <t>afen</t>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>068923895</t>
+  </si>
+  <si>
+    <t>MOHAMMEDINE19@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -490,28 +469,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -520,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
